--- a/1  临时/umem_SPR.xlsx
+++ b/1  临时/umem_SPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pac" sheetId="2" r:id="rId1"/>
     <sheet name="res" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -79,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,26 +445,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1"/>
-    <col min="9" max="11" width="8.875" style="1"/>
-    <col min="13" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="9" max="11" width="8.88671875" style="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -473,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -491,7 +493,7 @@
         <v>236.34765625</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -509,7 +511,7 @@
         <v>32.453125</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>8094128</v>
       </c>
@@ -521,7 +523,7 @@
         <v>32.421875</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -533,19 +535,19 @@
         <v>6463</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>3307</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>3156</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -557,24 +559,24 @@
         <v>6359</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>3219</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>3140</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -590,19 +592,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
@@ -619,7 +621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -639,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G3" s="4">
         <f>+G4-G5</f>
         <v>123009</v>
@@ -649,7 +651,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2473352</v>
       </c>
@@ -675,7 +677,7 @@
         <v>154180</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1947516</v>
       </c>
@@ -703,7 +705,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2032533</v>
       </c>
@@ -725,7 +727,7 @@
         <v>5840</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1136695</v>
       </c>
@@ -744,7 +746,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="O8">
         <v>146520</v>
       </c>
@@ -757,7 +759,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2022922</v>
       </c>
@@ -766,6 +768,30 @@
       </c>
       <c r="O11">
         <v>145350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>144510</v>
+      </c>
+      <c r="P12" s="4">
+        <f>+O$11-O12</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>139960</v>
+      </c>
+      <c r="P13" s="4">
+        <f>+O$11-O13</f>
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f>+P13-4000-P12</f>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/1  临时/umem_SPR.xlsx
+++ b/1  临时/umem_SPR.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pac" sheetId="2" r:id="rId1"/>
     <sheet name="res" sheetId="3" r:id="rId2"/>
+    <sheet name="8910NV" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>LOAD_KERNEL_IMAGE</t>
   </si>
@@ -73,6 +74,125 @@
   </si>
   <si>
     <t>pac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_S_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>PS/stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNIN</t>
+  </si>
+  <si>
+    <t>FOTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60EF0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M=16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOTAboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRYSTAL</t>
+  </si>
+  <si>
+    <t>SIM_LOCK</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>FIXED_NV</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>UDISK</t>
+  </si>
+  <si>
+    <t>F_E_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CONFIG</t>
+  </si>
+  <si>
+    <t>FOTA</t>
+  </si>
+  <si>
+    <t>1M=16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECTOR</t>
+  </si>
+  <si>
+    <t>Udisk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROM</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +231,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +296,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -595,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -799,4 +970,600 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
+        <f>(HEX2DEC(H3)-HEX2DEC(H2))/HEX2DEC(10000)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5">
+        <v>60020000</v>
+      </c>
+      <c r="I3">
+        <v>175</v>
+      </c>
+      <c r="J3" s="7">
+        <f>(HEX2DEC(H6)-HEX2DEC(H3))/HEX2DEC(10000)</f>
+        <v>175</v>
+      </c>
+      <c r="K3">
+        <f>+J3/16</f>
+        <v>10.9375</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8">
+        <f>60+11</f>
+        <v>71</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4"/>
+      <c r="M4">
+        <v>61</v>
+      </c>
+      <c r="N4">
+        <f>+M4*64/1024</f>
+        <v>3.8125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6"/>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>75</v>
+      </c>
+      <c r="N5">
+        <f>+M5*64/1024</f>
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="11" t="str">
+        <f t="shared" ref="H6:H9" si="0">DEC2HEX(HEX2DEC(H7)-HEX2DEC(10000)*I6)</f>
+        <v>60B10000</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" ref="J6:J11" si="1">(HEX2DEC(H7)-HEX2DEC(H6))/HEX2DEC(10000)</f>
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <f>+M6*64/1024</f>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>60B40000</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>60B60000</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>60B70000</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>DEC2HEX(HEX2DEC(60000000)+HEX2DEC(1000000)-71*HEX2DEC(10000))</f>
+        <v>60B90000</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8">
+        <v>61</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f>DEC2HEX(HEX2DEC(H12)-HEX2DEC(10000)*I11)</f>
+        <v>60C40000</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <f>+M11*64</f>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8">
+        <f>60-60</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>DEC2HEX(HEX2DEC(60000000)+HEX2DEC(1000000))</f>
+        <v>61000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="H14" s="5" t="str">
+        <f>DEC2HEX(HEX2DEC(60000000)+HEX2DEC(1000000))</f>
+        <v>61000000</v>
+      </c>
+      <c r="J14" s="7">
+        <f>(HEX2DEC(H15)-HEX2DEC(H14))/HEX2DEC(10000)</f>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="5">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="H16" s="5">
+        <v>70000000</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" ref="J16:J21" si="2">(HEX2DEC(H17)-HEX2DEC(H16))/HEX2DEC(10000)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f>DEC2HEX(HEX2DEC(H18)-HEX2DEC(10000)*I17)</f>
+        <v>70300000</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f>DEC2HEX(HEX2DEC(H19)-HEX2DEC(10000)*I18)</f>
+        <v>70400000</v>
+      </c>
+      <c r="I18">
+        <v>61</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <f>+M18*64</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f>DEC2HEX(HEX2DEC(H20)-HEX2DEC(10000)*I19)</f>
+        <v>707D0000</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f>DEC2HEX(HEX2DEC(H21)-HEX2DEC(10000)*I20)</f>
+        <v>707E0000</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>DEC2HEX(HEX2DEC(70800000)-HEX2DEC(10000)*I21)</f>
+        <v>707F0000</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
+        <f>SUM(C3:C21)</f>
+        <v>207</v>
+      </c>
+      <c r="D22" s="6">
+        <v>256</v>
+      </c>
+      <c r="E22">
+        <f>256*64/1024</f>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>DEC2HEX(HEX2DEC(70000000)+HEX2DEC(800000))</f>
+        <v>70800000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H25"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="5">
+        <f>HEX2DEC(G28/1000)*4/1024</f>
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="7">
+        <f>HEX2DEC(G28)/HEX2DEC(10000)</f>
+        <v>256</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29">
+        <v>800000</v>
+      </c>
+      <c r="H29" s="5">
+        <f>HEX2DEC(G29/1000)*4/1024</f>
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="7">
+        <f>HEX2DEC(G29)/HEX2DEC(10000)</f>
+        <v>128</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>10000</v>
+      </c>
+      <c r="H30" s="5">
+        <f>HEX2DEC(G30/1000)*4/1024</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="7">
+        <f>HEX2DEC(G30)/HEX2DEC(10000)</f>
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>100000</v>
+      </c>
+      <c r="H31" s="5">
+        <f>HEX2DEC(G31/1000)*4/1024</f>
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="7">
+        <f>HEX2DEC(G31)/HEX2DEC(10000)</f>
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>